--- a/city_table.xlsx
+++ b/city_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilgun Aytekin\Desktop\proje exceller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F52648-B25A-475F-8130-40507687AC12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F94F7C-D5C0-4DDE-BC1E-ACB0933B451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
-  <si>
-    <t>HomeTeam</t>
-  </si>
-  <si>
-    <t>Bucaspor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
   <si>
     <t>Eskisehirspor</t>
   </si>
@@ -150,9 +144,6 @@
     <t>Malatyaspor</t>
   </si>
   <si>
-    <t>A. Sebatspor</t>
-  </si>
-  <si>
     <t>Istanbulspor</t>
   </si>
   <si>
@@ -376,6 +367,9 @@
   </si>
   <si>
     <t>aud_capacity</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -452,8 +446,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,7 +463,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -765,11 +759,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -782,648 +774,629 @@
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>16231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="5">
-        <v>16231</v>
+        <v>46</v>
+      </c>
+      <c r="D3" s="4">
+        <v>12139</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4">
-        <v>12139</v>
+        <v>10128</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4">
-        <v>10128</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D6" s="4">
-        <v>5000</v>
+        <v>20560</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D7" s="4">
-        <v>20560</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="4">
-        <v>18029</v>
+        <v>32537</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
-        <v>32537</v>
+        <v>13732</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4">
-        <v>13732</v>
+        <v>41188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4">
-        <v>41188</v>
+        <v>43361</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="4">
+        <v>17156</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>43361</v>
+        <v>14979</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="4">
-        <v>17156</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D15" s="4">
-        <v>14979</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4">
-        <v>1061</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="4">
+        <v>21374</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="D19" s="4">
-        <v>21374</v>
+        <v>32507</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4">
-        <v>21374</v>
+        <v>47834</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4">
-        <v>32507</v>
+        <v>52223</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
-        <v>47834</v>
+        <v>16981</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4">
-        <v>52223</v>
+        <v>20560</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4">
-        <v>16981</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4">
-        <v>20560</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4">
-        <v>9138</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4">
-        <v>2640</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4">
-        <v>4491</v>
+        <v>13856</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D29" s="4">
-        <v>11378</v>
+        <v>32864</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4">
-        <v>13856</v>
+        <v>34169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="4">
-        <v>32864</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4">
-        <v>34169</v>
+        <v>25745</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4">
-        <v>42000</v>
+        <v>16066</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D34" s="4">
-        <v>25745</v>
+        <v>25497</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="4">
-        <v>16066</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D36" s="4">
-        <v>25497</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D37" s="4">
-        <v>2640</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4">
-        <v>12000</v>
+        <v>15332</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>92</v>
+        <v>62</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D39" s="4">
-        <v>18029</v>
+        <v>28113</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="D40" s="4">
-        <v>15332</v>
+        <v>33919</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="4">
-        <v>28113</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4">
-        <v>33919</v>
+        <v>27532</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D43" s="4">
-        <v>5650</v>
+        <v>40782</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4">
-        <v>27532</v>
+        <v>25745</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="D45" s="4">
-        <v>40782</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="4">
-        <v>25745</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="4">
         <v>8260</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C47">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/city_table.xlsx
+++ b/city_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilgun Aytekin\Desktop\proje exceller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nilgun Aytekin\Desktop\MUJDE-R\proje exceller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F94F7C-D5C0-4DDE-BC1E-ACB0933B451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD365DA4-BB24-4634-8A6A-CE6A55B69A92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>Eskisehirspor</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Balikesirspor</t>
   </si>
   <si>
-    <t>Erciyesspor</t>
-  </si>
-  <si>
     <t>Elazigspor</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Samsunspor</t>
   </si>
   <si>
-    <t>Diyarbakirspor</t>
-  </si>
-  <si>
     <t>Denizlispor</t>
   </si>
   <si>
@@ -324,9 +318,6 @@
     <t>GENÇLİK MERKEZİ SENTETİK SAHASI</t>
   </si>
   <si>
-    <t>KAYSERİ ATATÜRK SPOR KOMP.YAN AÇIK SAHA</t>
-  </si>
-  <si>
     <t>MANİSA 19 MAYIS</t>
   </si>
   <si>
@@ -358,12 +349,6 @@
   </si>
   <si>
     <t>YOZGAT BOZOK STADI</t>
-  </si>
-  <si>
-    <t>DİYARBAKIR STADYUMU</t>
-  </si>
-  <si>
-    <t>Diyarbakir</t>
   </si>
   <si>
     <t>aud_capacity</t>
@@ -446,8 +431,8 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,7 +448,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,9 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -774,486 +761,492 @@
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5">
-        <v>16231</v>
+        <v>96</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1061</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4">
-        <v>12139</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4">
-        <v>10128</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4">
-        <v>5000</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
-        <v>20560</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="4">
-        <v>18029</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4">
-        <v>32537</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4">
-        <v>13732</v>
+        <v>9138</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="4">
-        <v>41188</v>
+        <v>10128</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4">
-        <v>43361</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4">
-        <v>17156</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D13" s="4">
-        <v>14979</v>
+        <v>12139</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13732</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D15" s="4">
-        <v>1061</v>
+        <v>13856</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="D16" s="4">
+        <v>14979</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="4">
-        <v>21374</v>
+        <v>15332</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D18" s="4">
-        <v>21374</v>
+        <v>16066</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="4">
-        <v>32507</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="5">
+        <v>16231</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D20" s="4">
-        <v>47834</v>
+        <v>16981</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4">
-        <v>52223</v>
+        <v>17156</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="4">
-        <v>16981</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D23" s="4">
-        <v>20560</v>
+        <v>18029</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4">
-        <v>9138</v>
+        <v>20560</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4">
-        <v>2640</v>
+        <v>20560</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4">
-        <v>4491</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4">
-        <v>11378</v>
+        <v>21374</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4">
-        <v>13856</v>
+        <v>25497</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4">
-        <v>32864</v>
+        <v>25745</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4">
-        <v>34169</v>
+        <v>25745</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D31" s="4">
-        <v>42000</v>
+        <v>27532</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D32" s="4">
-        <v>25745</v>
+        <v>28113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4">
-        <v>16066</v>
+        <v>32507</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D34" s="4">
-        <v>25497</v>
+        <v>32537</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="D35" s="4">
-        <v>2640</v>
+        <v>32864</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1261,142 +1254,117 @@
         <v>29</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" s="4">
-        <v>12000</v>
+        <v>33919</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>89</v>
+        <v>58</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D37" s="4">
-        <v>18029</v>
+        <v>34169</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D38" s="4">
-        <v>15332</v>
+        <v>40782</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D39" s="4">
-        <v>28113</v>
+        <v>41188</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D40" s="4">
-        <v>33919</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D41" s="4">
-        <v>5650</v>
+        <v>43361</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="4">
-        <v>27532</v>
+        <v>47834</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D43" s="4">
-        <v>40782</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="4">
-        <v>25745</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="4">
-        <v>8260</v>
+        <v>52223</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
